--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_residual_mean_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_residual_mean_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="residual_mean_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="residual_mean_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="residual_mean_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="residual_mean_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="residual_mean_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>76.26545212328827</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5890109939345469</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7626545212328827</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7552798348881204</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.57980605368559</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6179844434489496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7557980605368558</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7543220201204507</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84.70047318748432</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4009548033898075</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8470047318748432</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8466733929806601</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74.6451093867594</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6726699170966943</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.746451093867594</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7379561910981176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.03983598474035</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.040368670597672</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6503983598474036</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6294524977951775</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74.54095623664566</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7563962786691263</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7454095623664564</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7348263204203711</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72.41273713440428</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6923659095540643</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7241273713440428</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7151976435545833</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.23291723976851</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7244101061796149</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7523291723976852</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7266837014696729</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>70.75718648085191</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8388301630193988</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7075718648085191</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6733256686075816</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69.97335617090113</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7736928432908219</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6997335617090112</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7007001035818986</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>67.40508135883529</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9201611270507177</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6740508135883528</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6664650315209526</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.82520610039879</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6869658720990022</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.738252061003988</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7293666639651388</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>91.8040813501847</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2153562143852469</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.918040813501847</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9181942272993989</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.09819289094196</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2201539662054225</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9109819289094198</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9101752229575391</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.13412745784998</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1510863448924889</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9513412745784999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.950943664498142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>77.22763461044933</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.620027176920905</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7722763461044935</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7633041456505205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>65.22409363402798</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8527183073262373</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6522409363402797</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6410844225300392</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.98183375288713</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7945715494997179</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6998183375288713</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6898190414170104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.44849868943503</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5770118775467078</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7644849868943503</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7599101169931951</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.86629642124932</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8976685310403505</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6386629642124932</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6302308409755557</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>59.33649945068729</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.934074263771375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5933649945068729</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5715121498043751</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>65.26051263419234</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8454336707790693</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6526051263419234</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6435309871689618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>65.58897568318065</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7889859692504009</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6558897568318065</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6534278411317997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70.94749954584383</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6809977368762096</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7094749954584383</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6957786812506095</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>66.14702549330011</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.735373041840891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6614702549330012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6462843155507803</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.8606735352382</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8272987181941668</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6386067353523819</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6243546579319936</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>48.96149620671459</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.211558452248573</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4896149620671458</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4692887850924798</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59.15985432399934</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9342151050766307</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5915985432399935</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5780046001401542</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>84.23818545143124</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4295919641852379</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8423818545143125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8419585632762926</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.86247285876175</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.479923397290986</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8186247285876176</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8101436056027687</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.98832169828458</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2603277258264521</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8998832169828459</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8996669041970005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68.72481595861557</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7499833540502004</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6872481595861556</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6769997008708676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_residual_mean_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_residual_mean_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="residual_mean_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="residual_mean_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="residual_mean_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="residual_mean_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="residual_mean_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="residual_mean_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="residual_mean_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="residual_mean_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="residual_mean_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.16519174041298</v>
+        <v>96.10619469026548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08711485194144189</v>
+        <v>0.1084684804474818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9616519174041297</v>
+        <v>0.9610619469026549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9613106408294219</v>
+        <v>0.9608099570699556</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.74683171999757</v>
+        <v>91.8292545783268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2240776840777613</v>
+        <v>0.2769280509057945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9374683171999758</v>
+        <v>0.9182925457832679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9344395353093402</v>
+        <v>0.9060785835311813</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.01474926253687</v>
+        <v>95.78171091445428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1395155224869086</v>
+        <v>0.1296105117443706</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9501474926253687</v>
+        <v>0.9578171091445429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9476332162250116</v>
+        <v>0.9572166071001659</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.44542772861357</v>
+        <v>95.25073746312685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2524130351345472</v>
+        <v>0.1396812002533503</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9144542772861357</v>
+        <v>0.9525073746312686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.90823011561511</v>
+        <v>0.951294689172777</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.56132838519365</v>
+        <v>78.44661285997283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5616929770524924</v>
+        <v>0.6093775408963362</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7956132838519364</v>
+        <v>0.7844661285997283</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7776032039925205</v>
+        <v>0.7652758318543078</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.26825491569996</v>
+        <v>86.84781010216352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2913177545211511</v>
+        <v>0.4941182658464338</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9026825491569996</v>
+        <v>0.8684781010216351</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8887972020035191</v>
+        <v>0.8496982133912701</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.64601769911505</v>
+        <v>90.61946902654867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3022981973326144</v>
+        <v>0.2554268595248383</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8964601769911503</v>
+        <v>0.9061946902654867</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8851698055399406</v>
+        <v>0.9037752758260993</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.47509926556458</v>
+        <v>90.61946902654867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2025230907691972</v>
+        <v>0.2298967508167455</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9147509926556457</v>
+        <v>0.9061946902654867</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9148101120704064</v>
+        <v>0.9033269319525943</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.15339233038348</v>
+        <v>88.23008849557523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2269041256586206</v>
+        <v>0.3133347592263211</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9215339233038348</v>
+        <v>0.8823008849557523</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9164896542062486</v>
+        <v>0.8770265629996572</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.9410029498525</v>
+        <v>90.61946902654867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2546823422128455</v>
+        <v>0.27517716329221</v>
       </c>
       <c r="D11" t="n">
-        <v>0.899410029498525</v>
+        <v>0.9061946902654867</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8906973403252219</v>
+        <v>0.8897703590135493</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.77615723319406</v>
+        <v>82.09526033962231</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6353597896281674</v>
+        <v>0.5374256315505288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8377615723319405</v>
+        <v>0.8209526033962231</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8241900396613072</v>
+        <v>0.8093455861561456</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.34218289085545</v>
+        <v>84.57244439830795</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5295383368900123</v>
+        <v>0.6381860678559557</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8634218289085546</v>
+        <v>0.8457244439830796</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8461703378483559</v>
+        <v>0.8307298099258965</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.70206489675516</v>
+        <v>98.99705014749262</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04859034531107985</v>
+        <v>0.03960267259615573</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9870206489675516</v>
+        <v>0.9899705014749263</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9869364155420504</v>
+        <v>0.9899919366651634</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.49852507374632</v>
+        <v>99.82300884955752</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01246896966025588</v>
+        <v>0.00755050994322725</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9949852507374631</v>
+        <v>0.9982300884955752</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9949978412824414</v>
+        <v>0.9982342396624141</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.99115044247787</v>
+        <v>96.63716814159292</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07092650369559503</v>
+        <v>0.08095693132695109</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9699115044247787</v>
+        <v>0.9663716814159292</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9692405102510598</v>
+        <v>0.965335441636398</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.64849176895994</v>
+        <v>91.09838320400695</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2559615684248461</v>
+        <v>0.2757160930817801</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9164849176895993</v>
+        <v>0.9109838320400697</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9097810647134636</v>
+        <v>0.9038606683971718</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.94169499736157</v>
+        <v>88.37758112094396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2542992242379114</v>
+        <v>0.309922943302081</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8994169499736155</v>
+        <v>0.8837758112094395</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8988681443815437</v>
+        <v>0.8786633155258705</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.19274388186749</v>
+        <v>80.32405124611805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4603251868761921</v>
+        <v>0.476745335109202</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8119274388186749</v>
+        <v>0.8032405124611804</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8009911302511454</v>
+        <v>0.7963872743850551</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.97640117994101</v>
+        <v>89.26392096817446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2072198798065074</v>
+        <v>0.2658616019645706</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9197640117994099</v>
+        <v>0.8926392096817446</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9201108899852711</v>
+        <v>0.8911436426945792</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.41332537478698</v>
+        <v>92.68453879358819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2563570977731918</v>
+        <v>0.2052915476330478</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9041332537478699</v>
+        <v>0.9268453879358818</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9018097938750964</v>
+        <v>0.9235260055196758</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.72821564200383</v>
+        <v>75.44243462313688</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7605543574046654</v>
+        <v>0.6102457545076808</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7172821564200382</v>
+        <v>0.7544243462313688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7004387265961767</v>
+        <v>0.7398317863599436</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.55230581579426</v>
+        <v>86.32220001903131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4320080934558064</v>
+        <v>0.4137906183488667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8655230581579426</v>
+        <v>0.863222000190313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8478928441383931</v>
+        <v>0.8546142172977381</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.69841434614486</v>
+        <v>84.95869341430289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3297722250067939</v>
+        <v>0.3609337305339674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8669841434614487</v>
+        <v>0.8495869341430289</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8690216375679078</v>
+        <v>0.8451550487772792</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.46485696243047</v>
+        <v>87.52593015510516</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3034451351927904</v>
+        <v>0.3140782915754244</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8746485696243047</v>
+        <v>0.8752593015510515</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8698601499444752</v>
+        <v>0.870791023077555</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.95435081618353</v>
+        <v>82.99405704201594</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4928512794605922</v>
+        <v>0.3678638704524929</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8295435081618354</v>
+        <v>0.8299405704201593</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8142238882365191</v>
+        <v>0.8226509690925692</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.59081825967353</v>
+        <v>81.65347451102518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.579975272755837</v>
+        <v>0.4592713312255607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7859081825967353</v>
+        <v>0.8165347451102518</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7672722499185036</v>
+        <v>0.8098425569990709</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.85909912715508</v>
+        <v>76.02513862576666</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6790468624407368</v>
+        <v>0.8224752964359746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8185909912715508</v>
+        <v>0.7602513862576666</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8170080094617479</v>
+        <v>0.7503258613290726</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.8493672090589</v>
+        <v>77.76036124879974</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7619185588555411</v>
+        <v>0.7003621260926594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7684936720905891</v>
+        <v>0.7776036124879973</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7527856065579579</v>
+        <v>0.7603084997627357</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.25663716814159</v>
+        <v>95.84070796460176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08971950770561912</v>
+        <v>0.1088526745588752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9725663716814159</v>
+        <v>0.9584070796460177</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9724968831534699</v>
+        <v>0.9581348912589526</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.51344734816045</v>
+        <v>91.26843657817109</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1294074609438364</v>
+        <v>0.217047378342636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9451344734816045</v>
+        <v>0.9126843657817109</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9434962164141364</v>
+        <v>0.9023640288871018</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.28613569321534</v>
+        <v>97.05014749262537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08220594243918337</v>
+        <v>0.07536265916175276</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9728613569321534</v>
+        <v>0.9705014749262537</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9727165299431046</v>
+        <v>0.9702983911439633</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.35185425479459</v>
+        <v>85.83277825356045</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3879404056236803</v>
+        <v>0.3805403439496528</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8635185425479458</v>
+        <v>0.8583277825356043</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8565995133616966</v>
+        <v>0.8516025008074108</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.57295478334588</v>
+        <v>82.03799340824747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4083404622040689</v>
+        <v>0.4573596203234047</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8357295478334589</v>
+        <v>0.8203799340824748</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8317417006269447</v>
+        <v>0.8136306187407122</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.85220460384605</v>
+        <v>78.03588266334484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6791994826931235</v>
+        <v>0.8842459044069984</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7485220460384605</v>
+        <v>0.7803588266334484</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7340940279907568</v>
+        <v>0.7435903095782044</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.88858900163495</v>
+        <v>87.55214145451086</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2289384826799505</v>
+        <v>0.3476014514065658</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9088858900163496</v>
+        <v>0.8755214145451085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9086958863078152</v>
+        <v>0.8752548120548103</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.49349042811789</v>
+        <v>83.63056773847525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3459291090994763</v>
+        <v>0.4570037353783846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8749349042811788</v>
+        <v>0.8363056773847525</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8723405566486939</v>
+        <v>0.8264222055313859</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.24705231014109</v>
+        <v>66.35636986479122</v>
       </c>
       <c r="C6" t="n">
-        <v>1.015022293007739</v>
+        <v>0.99470558486258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6924705231014109</v>
+        <v>0.6635636986479121</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6631127230180829</v>
+        <v>0.6363254025563385</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.96337338558291</v>
+        <v>79.60155364665783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6899506102616821</v>
+        <v>0.5936193968790273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7596337338558292</v>
+        <v>0.7960155364665784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7546050340240275</v>
+        <v>0.7785086271992852</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.9992906513032</v>
+        <v>78.42143963183074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6206226491873774</v>
+        <v>0.5225674997394283</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7799929065130321</v>
+        <v>0.7842143963183072</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7649068588256036</v>
+        <v>0.7779214395487164</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.16447374112232</v>
+        <v>77.91373627799548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4809878701188912</v>
+        <v>0.5920067395394046</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8316447374112232</v>
+        <v>0.7791373627799548</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8233839573838295</v>
+        <v>0.7638820843297743</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.2987915120373</v>
+        <v>80.24014048564433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5000987062851588</v>
+        <v>0.5826780940677661</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8029879151203729</v>
+        <v>0.8024014048564434</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7953976913303323</v>
+        <v>0.7886340654913525</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.86012854782481</v>
+        <v>77.52800629763233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4561110624810681</v>
+        <v>0.5482027521550965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8086012854782482</v>
+        <v>0.7752800629763233</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8010704812581961</v>
+        <v>0.7652969360124773</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.29913753579183</v>
+        <v>73.81153816209482</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8238411754524957</v>
+        <v>0.7093356386370336</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7029913753579182</v>
+        <v>0.7381153816209484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.707123956860445</v>
+        <v>0.7389482428224585</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.2574849263402</v>
+        <v>76.52315331447504</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7745486696561178</v>
+        <v>0.8011025659429529</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7525748492634019</v>
+        <v>0.7652315331447503</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7459184231853121</v>
+        <v>0.7492189660555815</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.81120943952803</v>
+        <v>94.24778761061947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1219774753592598</v>
+        <v>0.1373103348014411</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9581120943952802</v>
+        <v>0.9424778761061947</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9572210628634343</v>
+        <v>0.941033300695753</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.32351490929852</v>
+        <v>90.71021375617435</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3727353471937628</v>
+        <v>0.2153359089895578</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8832351490929853</v>
+        <v>0.9071021375617436</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8811958412429088</v>
+        <v>0.9066191991018554</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.54867256637168</v>
+        <v>94.75047362001401</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1025833672460673</v>
+        <v>0.1416280873799678</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9654867256637167</v>
+        <v>0.9475047362001401</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9644562786279345</v>
+        <v>0.9463866786843178</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.03869122281911</v>
+        <v>81.42406652883388</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5080591175284159</v>
+        <v>0.5323135543006406</v>
       </c>
       <c r="D17" t="n">
-        <v>0.820386912228191</v>
+        <v>0.8142406652883385</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8136842986796211</v>
+        <v>0.8034448592268683</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.26545212328827</v>
+        <v>77.0594901339977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5890109939345469</v>
+        <v>0.6027067159147312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7626545212328827</v>
+        <v>0.770594901339977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7552798348881204</v>
+        <v>0.7620262406731123</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.57980605368559</v>
+        <v>79.31418091852007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6179844434489496</v>
+        <v>0.5543592409541209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7557980605368558</v>
+        <v>0.7931418091852006</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7543220201204507</v>
+        <v>0.7801737689091273</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.70047318748432</v>
+        <v>85.40376646856808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4009548033898075</v>
+        <v>0.3605860210567092</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8470047318748432</v>
+        <v>0.8540376646856807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8466733929806601</v>
+        <v>0.8503808822314483</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.6451093867594</v>
+        <v>77.47610273445272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6726699170966943</v>
+        <v>0.7091484179720282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.746451093867594</v>
+        <v>0.7747610273445271</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7379561910981176</v>
+        <v>0.7679551980847398</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.03983598474035</v>
+        <v>58.82447079992041</v>
       </c>
       <c r="C6" t="n">
-        <v>1.040368670597672</v>
+        <v>1.31070678109924</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6503983598474036</v>
+        <v>0.5882447079992041</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6294524977951775</v>
+        <v>0.5434679339670778</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.54095623664566</v>
+        <v>79.22343618889437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7563962786691263</v>
+        <v>0.5317691120008627</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7454095623664564</v>
+        <v>0.7922343618889437</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7348263204203711</v>
+        <v>0.7870860534573098</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.41273713440428</v>
+        <v>74.09501812299415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6923659095540643</v>
+        <v>0.7669967615239632</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7241273713440428</v>
+        <v>0.7409501812299414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7151976435545833</v>
+        <v>0.7184818002963532</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.23291723976851</v>
+        <v>81.19776122630819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7244101061796149</v>
+        <v>0.4455991647206247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7523291723976852</v>
+        <v>0.811977612263082</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7266837014696729</v>
+        <v>0.8114356242240387</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.75718648085191</v>
+        <v>75.9971972075883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8388301630193988</v>
+        <v>0.629507388950636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7075718648085191</v>
+        <v>0.759971972075883</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6733256686075816</v>
+        <v>0.7502630328352053</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.97335617090113</v>
+        <v>75.50298878017976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7736928432908219</v>
+        <v>0.6133097888426466</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6997335617090112</v>
+        <v>0.7550298878017976</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7007001035818986</v>
+        <v>0.7480253036181782</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.40508135883529</v>
+        <v>70.57760015225045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9201611270507177</v>
+        <v>0.8578809673587481</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6740508135883528</v>
+        <v>0.7057760015225045</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6664650315209526</v>
+        <v>0.7029355038154691</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.82520610039879</v>
+        <v>72.60867308540732</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6869658720990022</v>
+        <v>0.748589514568448</v>
       </c>
       <c r="D13" t="n">
-        <v>0.738252061003988</v>
+        <v>0.726086730854073</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7293666639651388</v>
+        <v>0.7132120051329474</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.8040813501847</v>
+        <v>90.67846607669617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2153562143852469</v>
+        <v>0.248671726618583</v>
       </c>
       <c r="D14" t="n">
-        <v>0.918040813501847</v>
+        <v>0.9067846607669617</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9181942272993989</v>
+        <v>0.906309751741094</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.09819289094196</v>
+        <v>91.21895518127319</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2201539662054225</v>
+        <v>0.2585994893532188</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9109819289094198</v>
+        <v>0.9121895518127319</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9101752229575391</v>
+        <v>0.9074162468887392</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.13412745784998</v>
+        <v>96.34218289085545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1510863448924889</v>
+        <v>0.1198029636172578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9513412745784999</v>
+        <v>0.9634218289085545</v>
       </c>
       <c r="E16" t="n">
-        <v>0.950943664498142</v>
+        <v>0.9630769500821096</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77.22763461044933</v>
+        <v>79.03468599786042</v>
       </c>
       <c r="C17" t="n">
-        <v>0.620027176920905</v>
+        <v>0.5838822703034546</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7722763461044935</v>
+        <v>0.7903468599786041</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7633041456505205</v>
+        <v>0.7808164197304633</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.22409363402798</v>
+        <v>65.3011704253497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8527183073262373</v>
+        <v>0.9465970186516642</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6522409363402797</v>
+        <v>0.653011704253497</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6410844225300392</v>
+        <v>0.6315760720997111</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.98183375288713</v>
+        <v>75.21630809955103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7945715494997179</v>
+        <v>0.7441806360147893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6998183375288713</v>
+        <v>0.7521630809955104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6898190414170104</v>
+        <v>0.7312769595905954</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.44849868943503</v>
+        <v>81.54188185018901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5770118775467078</v>
+        <v>0.5534483863376712</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7644849868943503</v>
+        <v>0.8154188185018901</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7599101169931951</v>
+        <v>0.8097157160584467</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.86629642124932</v>
+        <v>72.73981608837447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8976685310403505</v>
+        <v>0.8368986827020611</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6386629642124932</v>
+        <v>0.7273981608837448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6302308409755557</v>
+        <v>0.7178165934781764</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.33649945068729</v>
+        <v>61.71394216212943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.934074263771375</v>
+        <v>1.001433166116476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5933649945068729</v>
+        <v>0.6171394216212943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5715121498043751</v>
+        <v>0.5966236227028192</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.26051263419234</v>
+        <v>77.28380003287226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8454336707790693</v>
+        <v>0.6205089951554934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6526051263419234</v>
+        <v>0.7728380003287226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6435309871689618</v>
+        <v>0.7657788753542437</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.58897568318065</v>
+        <v>74.12140243427712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7889859692504009</v>
+        <v>0.7035516529033582</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6558897568318065</v>
+        <v>0.7412140243427711</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6534278411317997</v>
+        <v>0.7274990289959385</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.94749954584383</v>
+        <v>76.95239578197042</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6809977368762096</v>
+        <v>0.5879781385505339</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7094749954584383</v>
+        <v>0.7695239578197043</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6957786812506095</v>
+        <v>0.756507519636945</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.14702549330011</v>
+        <v>77.09521708665299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.735373041840891</v>
+        <v>0.6057269031181931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6614702549330012</v>
+        <v>0.7709521708665299</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6462843155507803</v>
+        <v>0.7611210219321405</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.8606735352382</v>
+        <v>68.30266697808806</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8272987181941668</v>
+        <v>0.9798466841302191</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6386067353523819</v>
+        <v>0.6830266697808804</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6243546579319936</v>
+        <v>0.6612979156716725</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.96149620671459</v>
+        <v>68.15837507244872</v>
       </c>
       <c r="C12" t="n">
-        <v>1.211558452248573</v>
+        <v>0.9629817377465466</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4896149620671458</v>
+        <v>0.6815837507244872</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4692887850924798</v>
+        <v>0.6687751801357905</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.15985432399934</v>
+        <v>65.25999359856054</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9342151050766307</v>
+        <v>0.9810204887141785</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5915985432399935</v>
+        <v>0.6525999359856054</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5780046001401542</v>
+        <v>0.6406090263767846</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.23818545143124</v>
+        <v>89.03468023079785</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4295919641852379</v>
+        <v>0.2917270647982756</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8423818545143125</v>
+        <v>0.8903468023079786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8419585632762926</v>
+        <v>0.8889391436589621</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.86247285876175</v>
+        <v>90.50926046073063</v>
       </c>
       <c r="C15" t="n">
-        <v>0.479923397290986</v>
+        <v>0.2718694776413031</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8186247285876176</v>
+        <v>0.9050926046073062</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8101436056027687</v>
+        <v>0.9050356410741254</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.98832169828458</v>
+        <v>92.15944774608776</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2603277258264521</v>
+        <v>0.2365421431248023</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8998832169828459</v>
+        <v>0.9215944774608777</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8996669041970005</v>
+        <v>0.9167115623468576</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.72481595861557</v>
+        <v>75.69269053653868</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7499833540502004</v>
+        <v>0.6882874117137044</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6872481595861556</v>
+        <v>0.7569269053653866</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6769997008708676</v>
+        <v>0.7452855919408807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>62.35157743579096</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8768593765795231</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6235157743579097</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6079030447721473</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.00700698102925</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7318307688149314</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7000700698102925</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6887607526082162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.19274388186749</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4508198047522455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8119274388186749</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8092079931399704</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.23860933053054</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9795654766261578</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6323860933053054</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6227793946633847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>56.23275287848511</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.078188760578632</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.562327528784851</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5403286517561687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71.59785119248436</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8192142337560654</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7159785119248436</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6987365661118672</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>69.89074299950691</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6976079128061732</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6989074299950692</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6846082930578954</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>76.42401750880198</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5398937288671732</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7642401750880198</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7463351427708103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.67196083011099</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7880203450409076</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6867196083011098</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6533623296194373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.77147726191403</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.024748179471741</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6277147726191403</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.608157607826569</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.20219898096004</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.22071127196153</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5420219898096004</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5100131459357586</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.46336040969211</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9374033058683077</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6446336040969213</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6297350194177763</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>77.24097959324908</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6563617512894173</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7724097959324908</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7720639685231505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.52727099715396</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4461870557118043</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8252727099715396</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8131787089193875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.11670516180936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2351250768998094</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9111670516180936</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9115524203956749</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>70.12861702955907</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7655024699349613</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7012861702955908</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6864482026345475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>59.29644720110035</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.009019346783558</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5929644720110036</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5691462738305036</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.42949333471742</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7193253482381503</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6942949333471743</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6735944000056634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79.10198185105408</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5325581091145675</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7910198185105408</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7911942962203893</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.54768639867127</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.905912814537684</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6254768639867127</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6190644971271311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>49.23390340746893</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.237258706924816</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4923390340746893</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4680329500622628</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>68.83312139378367</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.762174665927887</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6883312139378368</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6778460855505386</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>68.42204517340116</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8437705596598486</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6842204517340116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6669986658931856</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>67.84167683111446</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8159513360510269</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6784167683111446</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.658521166988787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.8431733838528</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8235487812509138</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.608431733838528</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5814399168153402</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.64152804090001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8946843658884367</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6064152804090001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5915550967671784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>48.99480099308818</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.201890831937393</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4899480099308818</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4794646511199586</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.60247060960735</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9997425618271034</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5560247060960735</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5330511792560808</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.80124395539754</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4694087438285351</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8380124395539754</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8342638071545508</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.42120606579643</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4178018883181115</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8142120606579641</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8114231195721094</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.60830976046506</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2250118466482188</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9060830976046506</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9049174564336193</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>67.10793922669458</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7905373271290833</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6710793922669459</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6573675708531534</v>
       </c>
     </row>
   </sheetData>
